--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_project\myPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90228BB-7E81-422F-86AA-13899EA42724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA4ED97-377C-413D-9DF4-975AC33A0AE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿松大</t>
+    <t>Entnum_Uinque</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -512,12 +512,6 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -531,6 +525,12 @@
       </c>
       <c r="D3" t="s">
         <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
